--- a/APM files/138591414/138591414 IMPORT 3 OID creation.xlsx
+++ b/APM files/138591414/138591414 IMPORT 3 OID creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAFCC7-0A26-2444-8F12-8C8F1F619EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F6526-ED68-0040-96EB-4F284D6BE005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
